--- a/WIP/Documents/Report 5/Test Result/DDL_System Test Case_v1.0_JP.xlsx
+++ b/WIP/Documents/Report 5/Test Result/DDL_System Test Case_v1.0_JP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="840" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <definedName name="Statistic" comment="fsfsdfs" localSheetId="14">#REF!</definedName>
     <definedName name="Statistic" comment="fsfsdfs">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -10600,6 +10600,21 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10664,13 +10679,25 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="62" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10691,12 +10718,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10708,27 +10729,6 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -11286,8 +11286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11305,13 +11305,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="250" t="s">
+      <c r="C2" s="255" t="s">
         <v>1257</v>
       </c>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -11322,11 +11322,11 @@
       <c r="B4" s="234" t="s">
         <v>1258</v>
       </c>
-      <c r="C4" s="251" t="s">
+      <c r="C4" s="256" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="251"/>
-      <c r="E4" s="251"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
       <c r="F4" s="234" t="s">
         <v>1273</v>
       </c>
@@ -11338,11 +11338,11 @@
       <c r="B5" s="234" t="s">
         <v>1259</v>
       </c>
-      <c r="C5" s="251" t="s">
+      <c r="C5" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
+      <c r="D5" s="256"/>
+      <c r="E5" s="256"/>
       <c r="F5" s="234" t="s">
         <v>1261</v>
       </c>
@@ -11351,15 +11351,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="252" t="s">
+      <c r="B6" s="257" t="s">
         <v>1260</v>
       </c>
-      <c r="C6" s="254" t="str">
+      <c r="C6" s="259" t="str">
         <f>C5&amp;"_"&amp;"System Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>DDL_System Test Case_v1.0</v>
       </c>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
       <c r="F6" s="234" t="s">
         <v>1275</v>
       </c>
@@ -11368,10 +11368,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="253"/>
-      <c r="C7" s="254"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
+      <c r="B7" s="258"/>
+      <c r="C7" s="259"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="259"/>
       <c r="F7" s="234" t="s">
         <v>1262</v>
       </c>
@@ -11801,17 +11801,17 @@
       <c r="IW1" s="69"/>
     </row>
     <row r="2" spans="1:257" ht="15">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="250" t="s">
         <v>1291</v>
       </c>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="276" t="s">
         <v>538</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
       <c r="H2" s="70"/>
       <c r="I2" s="207" t="s">
         <v>1057</v>
@@ -12086,17 +12086,17 @@
       <c r="IW2" s="69"/>
     </row>
     <row r="3" spans="1:257" ht="15">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="250" t="s">
         <v>1292</v>
       </c>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="276" t="s">
         <v>539</v>
       </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
       <c r="H3" s="70"/>
       <c r="I3" s="207" t="s">
         <v>1058</v>
@@ -12371,17 +12371,17 @@
       <c r="IW3" s="69"/>
     </row>
     <row r="4" spans="1:257" ht="15">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="250" t="s">
         <v>1293</v>
       </c>
-      <c r="B4" s="272" t="s">
+      <c r="B4" s="278" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
       <c r="H4" s="70"/>
       <c r="I4" s="207" t="s">
         <v>1062</v>
@@ -12654,23 +12654,23 @@
       <c r="IW4" s="69"/>
     </row>
     <row r="5" spans="1:257" ht="15" customHeight="1">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="250" t="s">
         <v>1294</v>
       </c>
-      <c r="B5" s="291" t="s">
+      <c r="B5" s="252" t="s">
         <v>1284</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="252" t="s">
         <v>1295</v>
       </c>
-      <c r="D5" s="289" t="s">
+      <c r="D5" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="288" t="s">
+      <c r="E5" s="279" t="s">
         <v>1296</v>
       </c>
-      <c r="F5" s="281"/>
-      <c r="G5" s="282"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="281"/>
       <c r="H5" s="75"/>
       <c r="I5" s="207" t="s">
         <v>1059</v>
@@ -12961,12 +12961,12 @@
         <f>COUNTIF(F12:G160,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="274">
+      <c r="E6" s="282">
         <f>COUNTA(A12:A160)*2</f>
         <v>86</v>
       </c>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
       <c r="H6" s="75"/>
       <c r="I6" s="207" t="s">
         <v>1055</v>
@@ -14061,13 +14061,13 @@
       <c r="A10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="253" t="s">
         <v>1297</v>
       </c>
-      <c r="C10" s="292" t="s">
+      <c r="C10" s="253" t="s">
         <v>1298</v>
       </c>
-      <c r="D10" s="292" t="s">
+      <c r="D10" s="253" t="s">
         <v>1299</v>
       </c>
       <c r="E10" s="42" t="s">
@@ -14079,10 +14079,10 @@
       <c r="G10" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="H10" s="293" t="s">
+      <c r="H10" s="254" t="s">
         <v>1301</v>
       </c>
-      <c r="I10" s="292" t="s">
+      <c r="I10" s="253" t="s">
         <v>1302</v>
       </c>
       <c r="J10" s="197" t="s">
@@ -16561,17 +16561,17 @@
       <c r="IW1" s="69"/>
     </row>
     <row r="2" spans="1:257" ht="15">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="250" t="s">
         <v>1291</v>
       </c>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="276" t="s">
         <v>545</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
       <c r="H2" s="70"/>
       <c r="I2" s="207" t="s">
         <v>1057</v>
@@ -16846,17 +16846,17 @@
       <c r="IW2" s="69"/>
     </row>
     <row r="3" spans="1:257" ht="15">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="250" t="s">
         <v>1292</v>
       </c>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="276" t="s">
         <v>676</v>
       </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
       <c r="H3" s="70"/>
       <c r="I3" s="207" t="s">
         <v>1058</v>
@@ -17131,17 +17131,17 @@
       <c r="IW3" s="69"/>
     </row>
     <row r="4" spans="1:257" ht="15">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="250" t="s">
         <v>1293</v>
       </c>
-      <c r="B4" s="272" t="s">
+      <c r="B4" s="278" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
       <c r="H4" s="70"/>
       <c r="I4" s="207" t="s">
         <v>1062</v>
@@ -17414,23 +17414,23 @@
       <c r="IW4" s="69"/>
     </row>
     <row r="5" spans="1:257" ht="15" customHeight="1">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="250" t="s">
         <v>1294</v>
       </c>
-      <c r="B5" s="291" t="s">
+      <c r="B5" s="252" t="s">
         <v>1284</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="252" t="s">
         <v>1295</v>
       </c>
-      <c r="D5" s="289" t="s">
+      <c r="D5" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="288" t="s">
+      <c r="E5" s="279" t="s">
         <v>1296</v>
       </c>
-      <c r="F5" s="281"/>
-      <c r="G5" s="282"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="281"/>
       <c r="H5" s="75"/>
       <c r="I5" s="207" t="s">
         <v>1059</v>
@@ -17721,12 +17721,12 @@
         <f>COUNTIF(F12:G112,"N/A")</f>
         <v>2</v>
       </c>
-      <c r="E6" s="274">
+      <c r="E6" s="282">
         <f>COUNTA(A12:A112)*2</f>
         <v>40</v>
       </c>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
       <c r="H6" s="75"/>
       <c r="I6" s="207" t="s">
         <v>1055</v>
@@ -18821,13 +18821,13 @@
       <c r="A10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="253" t="s">
         <v>1297</v>
       </c>
-      <c r="C10" s="292" t="s">
+      <c r="C10" s="253" t="s">
         <v>1298</v>
       </c>
-      <c r="D10" s="292" t="s">
+      <c r="D10" s="253" t="s">
         <v>1299</v>
       </c>
       <c r="E10" s="42" t="s">
@@ -18839,10 +18839,10 @@
       <c r="G10" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="H10" s="293" t="s">
+      <c r="H10" s="254" t="s">
         <v>1301</v>
       </c>
-      <c r="I10" s="292" t="s">
+      <c r="I10" s="253" t="s">
         <v>1302</v>
       </c>
       <c r="J10" s="197" t="s">
@@ -20464,17 +20464,17 @@
       <c r="JB1" s="69"/>
     </row>
     <row r="2" spans="1:262" ht="15">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="250" t="s">
         <v>1291</v>
       </c>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="276" t="s">
         <v>704</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
       <c r="H2" s="70"/>
       <c r="I2" s="207" t="s">
         <v>1057</v>
@@ -20754,17 +20754,17 @@
       <c r="JB2" s="69"/>
     </row>
     <row r="3" spans="1:262" ht="15">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="250" t="s">
         <v>1292</v>
       </c>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="276" t="s">
         <v>705</v>
       </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
       <c r="H3" s="70"/>
       <c r="I3" s="207" t="s">
         <v>1058</v>
@@ -21044,17 +21044,17 @@
       <c r="JB3" s="69"/>
     </row>
     <row r="4" spans="1:262" ht="15">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="250" t="s">
         <v>1293</v>
       </c>
-      <c r="B4" s="272" t="s">
+      <c r="B4" s="278" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
       <c r="H4" s="70"/>
       <c r="I4" s="207" t="s">
         <v>1062</v>
@@ -21332,23 +21332,23 @@
       <c r="JB4" s="69"/>
     </row>
     <row r="5" spans="1:262" ht="15" customHeight="1">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="250" t="s">
         <v>1294</v>
       </c>
-      <c r="B5" s="291" t="s">
+      <c r="B5" s="252" t="s">
         <v>1284</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="252" t="s">
         <v>1295</v>
       </c>
-      <c r="D5" s="289" t="s">
+      <c r="D5" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="288" t="s">
+      <c r="E5" s="279" t="s">
         <v>1296</v>
       </c>
-      <c r="F5" s="281"/>
-      <c r="G5" s="282"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="281"/>
       <c r="H5" s="75"/>
       <c r="I5" s="207" t="s">
         <v>1059</v>
@@ -21644,12 +21644,12 @@
         <f>COUNTIF(F11:G112,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="274">
+      <c r="E6" s="282">
         <f>COUNTA(A11:A112)*2</f>
         <v>70</v>
       </c>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
       <c r="H6" s="75"/>
       <c r="I6" s="207" t="s">
         <v>1055</v>
@@ -22764,13 +22764,13 @@
       <c r="A10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="253" t="s">
         <v>1297</v>
       </c>
-      <c r="C10" s="292" t="s">
+      <c r="C10" s="253" t="s">
         <v>1298</v>
       </c>
-      <c r="D10" s="292" t="s">
+      <c r="D10" s="253" t="s">
         <v>1299</v>
       </c>
       <c r="E10" s="42" t="s">
@@ -22782,10 +22782,10 @@
       <c r="G10" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="H10" s="293" t="s">
+      <c r="H10" s="254" t="s">
         <v>1301</v>
       </c>
-      <c r="I10" s="292" t="s">
+      <c r="I10" s="253" t="s">
         <v>1302</v>
       </c>
       <c r="J10" s="197" t="s">
@@ -26733,17 +26733,17 @@
       <c r="IW1" s="69"/>
     </row>
     <row r="2" spans="1:257" ht="15">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="250" t="s">
         <v>1291</v>
       </c>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="276" t="s">
         <v>798</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
       <c r="H2" s="70"/>
       <c r="I2" s="207" t="s">
         <v>1057</v>
@@ -27018,17 +27018,17 @@
       <c r="IW2" s="69"/>
     </row>
     <row r="3" spans="1:257" ht="15">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="250" t="s">
         <v>1292</v>
       </c>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="276" t="s">
         <v>799</v>
       </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
       <c r="H3" s="70"/>
       <c r="I3" s="207" t="s">
         <v>1058</v>
@@ -27303,17 +27303,17 @@
       <c r="IW3" s="69"/>
     </row>
     <row r="4" spans="1:257" ht="15">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="250" t="s">
         <v>1293</v>
       </c>
-      <c r="B4" s="272" t="s">
+      <c r="B4" s="278" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
       <c r="H4" s="70"/>
       <c r="I4" s="207" t="s">
         <v>1062</v>
@@ -27586,23 +27586,23 @@
       <c r="IW4" s="69"/>
     </row>
     <row r="5" spans="1:257" ht="15" customHeight="1">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="250" t="s">
         <v>1294</v>
       </c>
-      <c r="B5" s="291" t="s">
+      <c r="B5" s="252" t="s">
         <v>1284</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="252" t="s">
         <v>1295</v>
       </c>
-      <c r="D5" s="289" t="s">
+      <c r="D5" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="288" t="s">
+      <c r="E5" s="279" t="s">
         <v>1296</v>
       </c>
-      <c r="F5" s="281"/>
-      <c r="G5" s="282"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="281"/>
       <c r="H5" s="75"/>
       <c r="I5" s="207" t="s">
         <v>1059</v>
@@ -27893,12 +27893,12 @@
         <f>COUNTIF(F11:G84,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="274">
+      <c r="E6" s="282">
         <f>COUNTA(A11:A84)*2</f>
         <v>18</v>
       </c>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
       <c r="H6" s="75"/>
       <c r="I6" s="207" t="s">
         <v>1055</v>
@@ -28993,13 +28993,13 @@
       <c r="A10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="253" t="s">
         <v>1297</v>
       </c>
-      <c r="C10" s="292" t="s">
+      <c r="C10" s="253" t="s">
         <v>1298</v>
       </c>
-      <c r="D10" s="292" t="s">
+      <c r="D10" s="253" t="s">
         <v>1299</v>
       </c>
       <c r="E10" s="42" t="s">
@@ -29011,10 +29011,10 @@
       <c r="G10" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="H10" s="293" t="s">
+      <c r="H10" s="254" t="s">
         <v>1301</v>
       </c>
-      <c r="I10" s="292" t="s">
+      <c r="I10" s="253" t="s">
         <v>1302</v>
       </c>
       <c r="J10" s="197" t="s">
@@ -29669,7 +29669,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:IW23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -29967,17 +29967,17 @@
       <c r="IW1" s="69"/>
     </row>
     <row r="2" spans="1:257" ht="15">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="250" t="s">
         <v>1291</v>
       </c>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="276" t="s">
         <v>817</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
       <c r="H2" s="70"/>
       <c r="I2" s="207" t="s">
         <v>1057</v>
@@ -30252,17 +30252,17 @@
       <c r="IW2" s="69"/>
     </row>
     <row r="3" spans="1:257" ht="15">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="250" t="s">
         <v>1292</v>
       </c>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="276" t="s">
         <v>819</v>
       </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
       <c r="H3" s="70"/>
       <c r="I3" s="207" t="s">
         <v>1058</v>
@@ -30537,17 +30537,17 @@
       <c r="IW3" s="69"/>
     </row>
     <row r="4" spans="1:257" ht="15">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="250" t="s">
         <v>1293</v>
       </c>
-      <c r="B4" s="272" t="s">
+      <c r="B4" s="278" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
       <c r="H4" s="70"/>
       <c r="I4" s="207" t="s">
         <v>1062</v>
@@ -30820,23 +30820,23 @@
       <c r="IW4" s="69"/>
     </row>
     <row r="5" spans="1:257" ht="15" customHeight="1">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="250" t="s">
         <v>1294</v>
       </c>
-      <c r="B5" s="291" t="s">
+      <c r="B5" s="252" t="s">
         <v>1284</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="252" t="s">
         <v>1295</v>
       </c>
-      <c r="D5" s="289" t="s">
+      <c r="D5" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="288" t="s">
+      <c r="E5" s="279" t="s">
         <v>1296</v>
       </c>
-      <c r="F5" s="281"/>
-      <c r="G5" s="282"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="281"/>
       <c r="H5" s="75"/>
       <c r="I5" s="207" t="s">
         <v>1059</v>
@@ -31127,12 +31127,12 @@
         <f>COUNTIF(F11:G87,"N/A")</f>
         <v>2</v>
       </c>
-      <c r="E6" s="274">
+      <c r="E6" s="282">
         <f>COUNTA(A11:A87)*2</f>
         <v>24</v>
       </c>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
       <c r="H6" s="75"/>
       <c r="I6" s="207" t="s">
         <v>1055</v>
@@ -32227,13 +32227,13 @@
       <c r="A10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="253" t="s">
         <v>1297</v>
       </c>
-      <c r="C10" s="292" t="s">
+      <c r="C10" s="253" t="s">
         <v>1298</v>
       </c>
-      <c r="D10" s="292" t="s">
+      <c r="D10" s="253" t="s">
         <v>1299</v>
       </c>
       <c r="E10" s="42" t="s">
@@ -32245,10 +32245,10 @@
       <c r="G10" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="H10" s="293" t="s">
+      <c r="H10" s="254" t="s">
         <v>1301</v>
       </c>
-      <c r="I10" s="292" t="s">
+      <c r="I10" s="253" t="s">
         <v>1302</v>
       </c>
       <c r="J10" s="197" t="s">
@@ -33399,17 +33399,17 @@
       <c r="IW1" s="69"/>
     </row>
     <row r="2" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="250" t="s">
         <v>1291</v>
       </c>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="276" t="s">
         <v>818</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
       <c r="H2" s="70"/>
       <c r="I2" s="207" t="s">
         <v>1057</v>
@@ -33684,17 +33684,17 @@
       <c r="IW2" s="69"/>
     </row>
     <row r="3" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="250" t="s">
         <v>1292</v>
       </c>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="276" t="s">
         <v>844</v>
       </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
       <c r="H3" s="70"/>
       <c r="I3" s="207" t="s">
         <v>1058</v>
@@ -33969,17 +33969,17 @@
       <c r="IW3" s="69"/>
     </row>
     <row r="4" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="250" t="s">
         <v>1293</v>
       </c>
-      <c r="B4" s="272" t="s">
+      <c r="B4" s="278" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
       <c r="H4" s="70"/>
       <c r="I4" s="207" t="s">
         <v>1062</v>
@@ -34252,23 +34252,23 @@
       <c r="IW4" s="69"/>
     </row>
     <row r="5" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="250" t="s">
         <v>1294</v>
       </c>
-      <c r="B5" s="291" t="s">
+      <c r="B5" s="252" t="s">
         <v>1284</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="252" t="s">
         <v>1295</v>
       </c>
-      <c r="D5" s="289" t="s">
+      <c r="D5" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="288" t="s">
+      <c r="E5" s="279" t="s">
         <v>1296</v>
       </c>
-      <c r="F5" s="281"/>
-      <c r="G5" s="282"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="281"/>
       <c r="H5" s="75"/>
       <c r="I5" s="207" t="s">
         <v>1059</v>
@@ -34559,12 +34559,12 @@
         <f>COUNTIF(F11:G100,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="274">
+      <c r="E6" s="282">
         <f>COUNTA(A11:A100)*2</f>
         <v>50</v>
       </c>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
       <c r="H6" s="75"/>
       <c r="I6" s="207" t="s">
         <v>1055</v>
@@ -35659,13 +35659,13 @@
       <c r="A10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="253" t="s">
         <v>1297</v>
       </c>
-      <c r="C10" s="292" t="s">
+      <c r="C10" s="253" t="s">
         <v>1298</v>
       </c>
-      <c r="D10" s="292" t="s">
+      <c r="D10" s="253" t="s">
         <v>1299</v>
       </c>
       <c r="E10" s="42" t="s">
@@ -35677,10 +35677,10 @@
       <c r="G10" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="H10" s="293" t="s">
+      <c r="H10" s="254" t="s">
         <v>1301</v>
       </c>
-      <c r="I10" s="292" t="s">
+      <c r="I10" s="253" t="s">
         <v>1302</v>
       </c>
       <c r="J10" s="197" t="s">
@@ -37251,17 +37251,17 @@
       <c r="IW1" s="69"/>
     </row>
     <row r="2" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="250" t="s">
         <v>1291</v>
       </c>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="276" t="s">
         <v>914</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
       <c r="H2" s="70"/>
       <c r="I2" s="207" t="s">
         <v>1057</v>
@@ -37533,17 +37533,17 @@
       <c r="IW2" s="69"/>
     </row>
     <row r="3" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="250" t="s">
         <v>1292</v>
       </c>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="276" t="s">
         <v>945</v>
       </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
       <c r="H3" s="70"/>
       <c r="I3" s="207" t="s">
         <v>1058</v>
@@ -37811,17 +37811,17 @@
       <c r="IW3" s="69"/>
     </row>
     <row r="4" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="250" t="s">
         <v>1293</v>
       </c>
-      <c r="B4" s="272" t="s">
+      <c r="B4" s="278" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
       <c r="H4" s="70"/>
       <c r="I4" s="207" t="s">
         <v>1062</v>
@@ -38093,23 +38093,23 @@
       <c r="IW4" s="69"/>
     </row>
     <row r="5" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="250" t="s">
         <v>1294</v>
       </c>
-      <c r="B5" s="291" t="s">
+      <c r="B5" s="252" t="s">
         <v>1284</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="252" t="s">
         <v>1295</v>
       </c>
-      <c r="D5" s="289" t="s">
+      <c r="D5" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="288" t="s">
+      <c r="E5" s="279" t="s">
         <v>1296</v>
       </c>
-      <c r="F5" s="281"/>
-      <c r="G5" s="282"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="281"/>
       <c r="H5" s="75"/>
       <c r="I5" s="207" t="s">
         <v>1059</v>
@@ -38397,12 +38397,12 @@
         <f>COUNTIF(F11:G94,"N/A")</f>
         <v>3</v>
       </c>
-      <c r="E6" s="274">
+      <c r="E6" s="282">
         <f>COUNTA(A11:A94)*2</f>
         <v>122</v>
       </c>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
       <c r="H6" s="75"/>
       <c r="I6" s="207" t="s">
         <v>1055</v>
@@ -39472,13 +39472,13 @@
       <c r="A10" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="253" t="s">
         <v>1297</v>
       </c>
-      <c r="C10" s="292" t="s">
+      <c r="C10" s="253" t="s">
         <v>1298</v>
       </c>
-      <c r="D10" s="292" t="s">
+      <c r="D10" s="253" t="s">
         <v>1299</v>
       </c>
       <c r="E10" s="42" t="s">
@@ -39490,10 +39490,10 @@
       <c r="G10" s="178" t="s">
         <v>535</v>
       </c>
-      <c r="H10" s="293" t="s">
+      <c r="H10" s="254" t="s">
         <v>1301</v>
       </c>
-      <c r="I10" s="292" t="s">
+      <c r="I10" s="253" t="s">
         <v>1302</v>
       </c>
       <c r="J10" s="197" t="s">
@@ -39756,16 +39756,16 @@
     </row>
     <row r="11" spans="1:257" ht="14.25" hidden="1" customHeight="1">
       <c r="A11" s="167"/>
-      <c r="B11" s="286" t="s">
+      <c r="B11" s="293" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="286"/>
-      <c r="D11" s="286"/>
-      <c r="E11" s="286"/>
-      <c r="F11" s="286"/>
-      <c r="G11" s="286"/>
-      <c r="H11" s="286"/>
-      <c r="I11" s="286"/>
+      <c r="C11" s="293"/>
+      <c r="D11" s="293"/>
+      <c r="E11" s="293"/>
+      <c r="F11" s="293"/>
+      <c r="G11" s="293"/>
+      <c r="H11" s="293"/>
+      <c r="I11" s="293"/>
       <c r="J11" s="141"/>
       <c r="K11" s="141"/>
       <c r="L11" s="141"/>
@@ -50852,8 +50852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -50868,15 +50868,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="262" t="s">
+      <c r="B1" s="267" t="s">
         <v>1269</v>
       </c>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="47"/>
@@ -50892,15 +50892,15 @@
       <c r="B3" s="233" t="s">
         <v>1270</v>
       </c>
-      <c r="C3" s="255" t="str">
+      <c r="C3" s="260" t="str">
         <f>表紙!C4</f>
         <v>Dandelion</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="257" t="s">
+      <c r="D3" s="261"/>
+      <c r="E3" s="262" t="s">
         <v>1273</v>
       </c>
-      <c r="F3" s="258"/>
+      <c r="F3" s="263"/>
       <c r="G3" s="50" t="s">
         <v>35</v>
       </c>
@@ -50910,15 +50910,15 @@
       <c r="B4" s="10" t="s">
         <v>1271</v>
       </c>
-      <c r="C4" s="255" t="str">
+      <c r="C4" s="260" t="str">
         <f>表紙!C5</f>
         <v>DDL</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="257" t="s">
+      <c r="D4" s="261"/>
+      <c r="E4" s="262" t="s">
         <v>1274</v>
       </c>
-      <c r="F4" s="258"/>
+      <c r="F4" s="263"/>
       <c r="G4" s="50" t="s">
         <v>36</v>
       </c>
@@ -50928,15 +50928,15 @@
       <c r="B5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="255" t="str">
+      <c r="C5" s="260" t="str">
         <f>C4&amp;"_"&amp;"System Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>DDL_System Test Report_v1.0</v>
       </c>
-      <c r="D5" s="256"/>
-      <c r="E5" s="257" t="s">
+      <c r="D5" s="261"/>
+      <c r="E5" s="262" t="s">
         <v>1275</v>
       </c>
-      <c r="F5" s="258"/>
+      <c r="F5" s="263"/>
       <c r="G5" s="86">
         <v>42307</v>
       </c>
@@ -50947,12 +50947,12 @@
       <c r="B6" s="52" t="s">
         <v>1281</v>
       </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="261"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265"/>
+      <c r="G6" s="265"/>
+      <c r="H6" s="266"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="47"/>
@@ -51469,7 +51469,7 @@
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -51496,39 +51496,39 @@
       <c r="E2" s="32"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="265" t="s">
+      <c r="B3" s="270" t="s">
         <v>1270</v>
       </c>
-      <c r="C3" s="265"/>
-      <c r="D3" s="266" t="str">
+      <c r="C3" s="270"/>
+      <c r="D3" s="271" t="str">
         <f>表紙!C4</f>
         <v>Dandelion</v>
       </c>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="271"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="265" t="s">
+      <c r="B4" s="270" t="s">
         <v>1271</v>
       </c>
-      <c r="C4" s="265"/>
-      <c r="D4" s="266" t="str">
+      <c r="C4" s="270"/>
+      <c r="D4" s="271" t="str">
         <f>表紙!C5</f>
         <v>DDL</v>
       </c>
-      <c r="E4" s="266"/>
-      <c r="F4" s="266"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
     </row>
     <row r="5" spans="2:6" s="33" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="263" t="s">
+      <c r="B5" s="268" t="s">
         <v>1272</v>
       </c>
-      <c r="C5" s="263"/>
-      <c r="D5" s="264" t="s">
+      <c r="C5" s="268"/>
+      <c r="D5" s="269" t="s">
         <v>1287</v>
       </c>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="34"/>
@@ -51779,7 +51779,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="267" t="s">
+      <c r="A4" s="272" t="s">
         <v>1048</v>
       </c>
       <c r="B4" s="184" t="s">
@@ -51791,7 +51791,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="268"/>
+      <c r="A5" s="273"/>
       <c r="B5" s="185" t="s">
         <v>1050</v>
       </c>
@@ -51801,7 +51801,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="268"/>
+      <c r="A6" s="273"/>
       <c r="B6" s="185" t="s">
         <v>1051</v>
       </c>
@@ -51811,7 +51811,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="268"/>
+      <c r="A7" s="273"/>
       <c r="B7" s="185" t="s">
         <v>1052</v>
       </c>
@@ -51821,7 +51821,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="269"/>
+      <c r="A8" s="274"/>
       <c r="B8" s="186" t="s">
         <v>1053</v>
       </c>
@@ -52090,11 +52090,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="275" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="15">
@@ -52400,7 +52400,7 @@
   <dimension ref="A1:IW24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:I10"/>
+      <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -52700,17 +52700,17 @@
       <c r="IW1" s="69"/>
     </row>
     <row r="2" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="250" t="s">
         <v>1291</v>
       </c>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="276" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
       <c r="H2" s="70"/>
       <c r="I2" s="207" t="s">
         <v>1057</v>
@@ -52985,17 +52985,17 @@
       <c r="IW2" s="69"/>
     </row>
     <row r="3" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="250" t="s">
         <v>1292</v>
       </c>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="276" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
       <c r="H3" s="70"/>
       <c r="I3" s="207" t="s">
         <v>1058</v>
@@ -53270,17 +53270,17 @@
       <c r="IW3" s="69"/>
     </row>
     <row r="4" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="250" t="s">
         <v>1293</v>
       </c>
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="277" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="272"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="278"/>
       <c r="H4" s="70"/>
       <c r="I4" s="207" t="s">
         <v>1062</v>
@@ -53553,23 +53553,23 @@
       <c r="IW4" s="69"/>
     </row>
     <row r="5" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="250" t="s">
         <v>1294</v>
       </c>
-      <c r="B5" s="291" t="s">
+      <c r="B5" s="252" t="s">
         <v>1284</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="252" t="s">
         <v>1295</v>
       </c>
-      <c r="D5" s="289" t="s">
+      <c r="D5" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="288" t="s">
+      <c r="E5" s="279" t="s">
         <v>1296</v>
       </c>
-      <c r="F5" s="281"/>
-      <c r="G5" s="282"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="281"/>
       <c r="H5" s="75"/>
       <c r="I5" s="207" t="s">
         <v>1059</v>
@@ -53860,12 +53860,12 @@
         <f>COUNTIF(F12:G152,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="274">
+      <c r="E6" s="282">
         <f>COUNTA(A12:A152)*2</f>
         <v>16</v>
       </c>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
       <c r="H6" s="75"/>
       <c r="I6" s="207" t="s">
         <v>1055</v>
@@ -54960,13 +54960,13 @@
       <c r="A10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="253" t="s">
         <v>1297</v>
       </c>
-      <c r="C10" s="292" t="s">
+      <c r="C10" s="253" t="s">
         <v>1298</v>
       </c>
-      <c r="D10" s="292" t="s">
+      <c r="D10" s="253" t="s">
         <v>1299</v>
       </c>
       <c r="E10" s="42" t="s">
@@ -54978,10 +54978,10 @@
       <c r="G10" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="H10" s="293" t="s">
+      <c r="H10" s="254" t="s">
         <v>1301</v>
       </c>
-      <c r="I10" s="292" t="s">
+      <c r="I10" s="253" t="s">
         <v>1302</v>
       </c>
       <c r="J10" s="197" t="s">
@@ -56205,7 +56205,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:IW26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
@@ -56503,17 +56503,17 @@
       <c r="IW1" s="69"/>
     </row>
     <row r="2" spans="1:257" ht="15">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="250" t="s">
         <v>1291</v>
       </c>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
       <c r="H2" s="70"/>
       <c r="I2" s="207" t="s">
         <v>1057</v>
@@ -56788,17 +56788,17 @@
       <c r="IW2" s="69"/>
     </row>
     <row r="3" spans="1:257" ht="15" customHeight="1">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="250" t="s">
         <v>1292</v>
       </c>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="276" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
       <c r="H3" s="70"/>
       <c r="I3" s="207" t="s">
         <v>1058</v>
@@ -57073,17 +57073,17 @@
       <c r="IW3" s="69"/>
     </row>
     <row r="4" spans="1:257" ht="15">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="250" t="s">
         <v>1293</v>
       </c>
-      <c r="B4" s="272" t="s">
+      <c r="B4" s="278" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
       <c r="H4" s="70"/>
       <c r="I4" s="207" t="s">
         <v>1062</v>
@@ -57356,23 +57356,23 @@
       <c r="IW4" s="69"/>
     </row>
     <row r="5" spans="1:257" ht="15" customHeight="1">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="250" t="s">
         <v>1294</v>
       </c>
-      <c r="B5" s="291" t="s">
+      <c r="B5" s="252" t="s">
         <v>1284</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="252" t="s">
         <v>1295</v>
       </c>
-      <c r="D5" s="289" t="s">
+      <c r="D5" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="288" t="s">
+      <c r="E5" s="279" t="s">
         <v>1296</v>
       </c>
-      <c r="F5" s="281"/>
-      <c r="G5" s="282"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="281"/>
       <c r="H5" s="75"/>
       <c r="I5" s="207" t="s">
         <v>1059</v>
@@ -57663,12 +57663,12 @@
         <f>COUNTIF(F12:G153,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="274">
+      <c r="E6" s="282">
         <f>COUNTA(A12:A153)*2</f>
         <v>30</v>
       </c>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
       <c r="H6" s="75"/>
       <c r="I6" s="207" t="s">
         <v>1055</v>
@@ -58763,13 +58763,13 @@
       <c r="A10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="253" t="s">
         <v>1297</v>
       </c>
-      <c r="C10" s="292" t="s">
+      <c r="C10" s="253" t="s">
         <v>1298</v>
       </c>
-      <c r="D10" s="292" t="s">
+      <c r="D10" s="253" t="s">
         <v>1299</v>
       </c>
       <c r="E10" s="42" t="s">
@@ -58781,10 +58781,10 @@
       <c r="G10" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="H10" s="293" t="s">
+      <c r="H10" s="254" t="s">
         <v>1301</v>
       </c>
-      <c r="I10" s="292" t="s">
+      <c r="I10" s="253" t="s">
         <v>1302</v>
       </c>
       <c r="J10" s="197" t="s">
@@ -59918,8 +59918,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:IW84"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -60218,17 +60218,17 @@
       <c r="IW1" s="69"/>
     </row>
     <row r="2" spans="1:257" ht="15">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="250" t="s">
         <v>1291</v>
       </c>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="276" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
       <c r="H2" s="70"/>
       <c r="I2" s="207" t="s">
         <v>1057</v>
@@ -60503,17 +60503,17 @@
       <c r="IW2" s="69"/>
     </row>
     <row r="3" spans="1:257" ht="15">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="250" t="s">
         <v>1292</v>
       </c>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="276" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
       <c r="H3" s="70"/>
       <c r="I3" s="207" t="s">
         <v>1058</v>
@@ -60788,17 +60788,17 @@
       <c r="IW3" s="69"/>
     </row>
     <row r="4" spans="1:257" ht="15">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="250" t="s">
         <v>1293</v>
       </c>
-      <c r="B4" s="272" t="s">
+      <c r="B4" s="278" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
       <c r="H4" s="70"/>
       <c r="I4" s="207" t="s">
         <v>1062</v>
@@ -61083,11 +61083,11 @@
       <c r="D5" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="273" t="s">
+      <c r="E5" s="283" t="s">
         <v>1296</v>
       </c>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="283"/>
       <c r="H5" s="75"/>
       <c r="I5" s="207" t="s">
         <v>1059</v>
@@ -61378,12 +61378,12 @@
         <f>COUNTIF(F12:G150,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="274">
+      <c r="E6" s="282">
         <f>COUNTA(A12:A150)*2</f>
         <v>120</v>
       </c>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
       <c r="H6" s="75"/>
       <c r="I6" s="207" t="s">
         <v>1055</v>
@@ -62484,7 +62484,7 @@
       <c r="C10" s="41" t="s">
         <v>1305</v>
       </c>
-      <c r="D10" s="292" t="s">
+      <c r="D10" s="253" t="s">
         <v>1299</v>
       </c>
       <c r="E10" s="42" t="s">
@@ -62496,10 +62496,10 @@
       <c r="G10" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="H10" s="293" t="s">
+      <c r="H10" s="254" t="s">
         <v>1301</v>
       </c>
-      <c r="I10" s="292" t="s">
+      <c r="I10" s="253" t="s">
         <v>1302</v>
       </c>
       <c r="J10" s="197" t="s">
@@ -67157,17 +67157,17 @@
       <c r="IW1" s="69"/>
     </row>
     <row r="2" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="250" t="s">
         <v>1291</v>
       </c>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="284" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="277"/>
+      <c r="C2" s="285"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="286"/>
       <c r="H2" s="70"/>
       <c r="I2" s="207" t="s">
         <v>1057</v>
@@ -67442,17 +67442,17 @@
       <c r="IW2" s="69"/>
     </row>
     <row r="3" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="250" t="s">
         <v>1292</v>
       </c>
-      <c r="B3" s="278" t="s">
+      <c r="B3" s="287" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="280"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="288"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="289"/>
       <c r="H3" s="70"/>
       <c r="I3" s="207" t="s">
         <v>1058</v>
@@ -67727,17 +67727,17 @@
       <c r="IW3" s="69"/>
     </row>
     <row r="4" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="250" t="s">
         <v>1293</v>
       </c>
-      <c r="B4" s="278" t="s">
+      <c r="B4" s="287" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="279"/>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="280"/>
+      <c r="C4" s="288"/>
+      <c r="D4" s="288"/>
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="289"/>
       <c r="H4" s="70"/>
       <c r="I4" s="207" t="s">
         <v>1062</v>
@@ -68010,23 +68010,23 @@
       <c r="IW4" s="69"/>
     </row>
     <row r="5" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="250" t="s">
         <v>1283</v>
       </c>
-      <c r="B5" s="291" t="s">
+      <c r="B5" s="252" t="s">
         <v>1303</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="252" t="s">
         <v>1285</v>
       </c>
-      <c r="D5" s="289" t="s">
+      <c r="D5" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="288" t="s">
+      <c r="E5" s="279" t="s">
         <v>1296</v>
       </c>
-      <c r="F5" s="281"/>
-      <c r="G5" s="282"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="281"/>
       <c r="H5" s="75"/>
       <c r="I5" s="207" t="s">
         <v>1059</v>
@@ -68317,12 +68317,12 @@
         <f>COUNTIF(F12:G159,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="283">
+      <c r="E6" s="290">
         <f>COUNTA(A12:A159)*2</f>
         <v>228</v>
       </c>
-      <c r="F6" s="284"/>
-      <c r="G6" s="285"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="292"/>
       <c r="H6" s="75"/>
       <c r="I6" s="207" t="s">
         <v>1055</v>
@@ -69417,13 +69417,13 @@
       <c r="A10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="253" t="s">
         <v>1304</v>
       </c>
-      <c r="C10" s="292" t="s">
+      <c r="C10" s="253" t="s">
         <v>1305</v>
       </c>
-      <c r="D10" s="292" t="s">
+      <c r="D10" s="253" t="s">
         <v>1299</v>
       </c>
       <c r="E10" s="42" t="s">
@@ -69435,10 +69435,10 @@
       <c r="G10" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="H10" s="293" t="s">
+      <c r="H10" s="254" t="s">
         <v>1301</v>
       </c>
-      <c r="I10" s="292" t="s">
+      <c r="I10" s="253" t="s">
         <v>1302</v>
       </c>
       <c r="J10" s="197" t="s">
